--- a/resources/PSS.xlsx
+++ b/resources/PSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/work/behave/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F22E25-9FAE-124A-8C7D-7A94FE636D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDA111-734D-754F-9B6E-A834E6E29CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="5520" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{EA7070BF-D72A-431F-9CC6-47E7609A5101}"/>
+    <workbookView xWindow="6400" yWindow="1400" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{EA7070BF-D72A-431F-9CC6-47E7609A5101}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,53 +42,6 @@
   </si>
   <si>
     <t>Description of the Items (Example below)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If the questionnaire has more than one scale, enter "2", "3" or "4" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for each additional scale and fill out the relevant fields on the right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, otherwise leave it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>levels of the item scales (Example below)</t>
@@ -234,9 +187,6 @@
     <t>URI of the corresponding CogPO term.</t>
   </si>
   <si>
-    <t>ADS</t>
-  </si>
-  <si>
     <t>Here is what you have to do</t>
   </si>
   <si>
@@ -364,6 +314,12 @@
   </si>
   <si>
     <t>very often</t>
+  </si>
+  <si>
+    <t>enter nr. of levels, zero means other scale (like age)</t>
+  </si>
+  <si>
+    <t>PSS</t>
   </si>
 </sst>
 </file>
@@ -552,6 +508,15 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -560,15 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +843,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -908,46 +864,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,461 +914,461 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>58</v>
+      <c r="A3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="9">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="8">
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I3" s="8">
         <v>2</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="8">
         <v>3</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="10">
         <v>4</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>59</v>
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I4" s="8">
         <v>2</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" s="8">
         <v>3</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M4" s="10">
         <v>4</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="8">
         <v>2</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="8">
         <v>3</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="10">
         <v>4</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>61</v>
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="8">
         <v>2</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" s="8">
         <v>3</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M6" s="10">
         <v>4</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>62</v>
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" s="8">
         <v>3</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M7" s="10">
         <v>4</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>63</v>
+      <c r="A8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="8">
         <v>3</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M8" s="10">
         <v>4</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
+      <c r="A9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9" s="8">
         <v>3</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M9" s="10">
         <v>4</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>65</v>
+      <c r="A10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="8">
         <v>2</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" s="8">
         <v>3</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="10">
         <v>4</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>66</v>
+      <c r="A11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8">
         <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="8">
         <v>3</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="10">
         <v>4</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>67</v>
+      <c r="A12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="8">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" s="8">
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="8">
         <v>3</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M12" s="10">
         <v>4</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1426,7 +1382,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1440,7 +1396,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1454,7 +1410,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1468,7 +1424,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1482,301 +1438,301 @@
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="16"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="16"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="16"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="16"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="16"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="16"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="16"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="16"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="16"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="16"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13"/>
-      <c r="D67" s="17"/>
+      <c r="D67" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1793,7 +1749,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1806,128 +1762,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1953,27 +1909,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="14">
         <v>44513</v>
